--- a/Start-1.xlsx
+++ b/Start-1.xlsx
@@ -8,8 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ganesh-files\HK-2022\2-PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04AB72-A5E6-4108-BDA0-4B0FDF67D4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="750wv2BzbxQb6OueNHL5tFXHYUtp8T0TUY1xLMu4Hh8n9U3rwk6sacxPTVLAfCnfcUULmby776qONjmmw/Jx8w==" workbookSaltValue="KdSFA3Ux8bGShZnoLYjO0A==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90ADC7A-F4DD-4B83-B4E9-49BB3E8D9FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,25 +229,6 @@
     <t xml:space="preserve">Technical Capability </t>
   </si>
   <si>
-    <t>Identify &amp; initiate procurements, Identify vendors, get quotes, delivery time.</t>
-  </si>
-  <si>
-    <t>Project templates. Creation of project environment.</t>
-  </si>
-  <si>
-    <t>POC to all Stakeholders. Progress reports/statues, RAG report.</t>
-  </si>
-  <si>
-    <t>Contingent workers, SME/Testing Companies, IT HW-SW Licenses</t>
-  </si>
-  <si>
-    <t>Timesheet, Audits, Checking for Scope + Time + Budget, Contractual compliance. Compliance to org policies. Compliant to contracts/agreement/MSA.</t>
-  </si>
-  <si>
-    <t>Project structure, reporting mechanism, roles and responsibilities, Regular &amp; timely communication to Clients&amp;Stakeholders. 
-Steering Committee meetings.</t>
-  </si>
-  <si>
     <t>Conduct scrum meetings in the absence of PO and Client.</t>
   </si>
   <si>
@@ -261,15 +241,6 @@
     <t>Scrum meetings</t>
   </si>
   <si>
-    <t>Identify lead resources. Initial training. Project warm up.</t>
-  </si>
-  <si>
-    <t>Past project risks, Research, SME's.</t>
-  </si>
-  <si>
-    <t>Identify deliverables, features, demo's. Trail run on MS Project.</t>
-  </si>
-  <si>
     <t>Project Road Map</t>
   </si>
   <si>
@@ -294,13 +265,7 @@
     <t>Win Confidence level &gt; 75%</t>
   </si>
   <si>
-    <t>Organise Project initiation meeting (PI) planning.  Setting up sprint calendar and schedule. Assisting in Jira story, Jira Kanban board.</t>
-  </si>
-  <si>
     <t>Project funds, report utilization for invoicing. Cash flow projections</t>
-  </si>
-  <si>
-    <t>People required, offshore/onshore deve., Travel, S/W licenses, GOM &gt; 65%</t>
   </si>
   <si>
     <t xml:space="preserve">Identify all stakeholders within the project and at client. </t>
@@ -352,43 +317,13 @@
     <t>Identify, watch, monitor and report Risk.</t>
   </si>
   <si>
-    <t>Contract conditions, work with attorneys, prepare SOW, payment terms, BG, penalty clauses.</t>
-  </si>
-  <si>
-    <t>Manhours rate, blended rate.</t>
-  </si>
-  <si>
-    <t>Workshops to ideate and Wishlist, identify additional risks, assumptions and dependencies. Project expectations setting and deliverables. Status and progress reporting, reviews. Escalations</t>
-  </si>
-  <si>
-    <t>Justification for CR/, additional procurement in-between  project</t>
-  </si>
-  <si>
-    <t>Review  contract T&amp;C, post delivery-warranties, production support, external audits, Bank Guarantee, penalty clauses, performance guarantee.</t>
-  </si>
-  <si>
-    <t>Understanding project, financial implications.</t>
-  </si>
-  <si>
     <t>Project technical summary. Ensure replete with case studies. Incorporate customer feedback.</t>
   </si>
   <si>
     <t xml:space="preserve">Self </t>
   </si>
   <si>
-    <t xml:space="preserve">Opex, cost of resources, P&amp;L. </t>
-  </si>
-  <si>
-    <t>Capacity Planning, skill building, people onboarding, project ready resources, technical engagements. Rewards &amp; Recognitions.</t>
-  </si>
-  <si>
     <t>Hiring inputs, evaluations. Project onboarding</t>
-  </si>
-  <si>
-    <t>Retention, year end appraisal, project completion appraisal, Comp review.</t>
-  </si>
-  <si>
-    <t>Project training for people who are deployed to project</t>
   </si>
   <si>
     <t>New systems, setting up project environment, SharePoint access, VPN, access controls.</t>
@@ -402,6 +337,110 @@
   </si>
   <si>
     <t>Project Demo(validation). CR &amp; Business case.</t>
+  </si>
+  <si>
+    <t>1. Manhours rate, blended rate
+2. Resources inhouse capability &amp; capacity</t>
+  </si>
+  <si>
+    <t>1. People 
+2. Developmet offshore/onshore, 
+4. IT H/w &amp; S/W licenses, 
+GOM &gt; 65%</t>
+  </si>
+  <si>
+    <t>1. Review  contract T&amp;C, 
+2. Post delivery-warranties, 
+3. Production support, 
+4. External audits, 
+5. Performance guarantee, penalty clauses, bank guarantee.</t>
+  </si>
+  <si>
+    <t>1. Understanding project, 
+2. Financial implications.</t>
+  </si>
+  <si>
+    <t>1. Identify lead resources. 
+2. Project training 
+3. Project warm up session.</t>
+  </si>
+  <si>
+    <t>1. Past project risks, 
+2. Research, 
+3. SME's.</t>
+  </si>
+  <si>
+    <t>1. Project templates. 
+2. Creation of project environment.</t>
+  </si>
+  <si>
+    <t>1. Identify &amp; initiate procurements, 
+2. Identify vendors, get quotes, delivery time.</t>
+  </si>
+  <si>
+    <t>1. Identify possible features/deliverables, 
+2. Demo's. 
+3. Trail run project on MS Project using Gantt chart.</t>
+  </si>
+  <si>
+    <t>1. Contract conditions, work with attorneys, 
+2. Prepare SOW, 
+3. Payment terms (if any BG, penalty clauses)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Opex, 
+2. Cost of resources, 
+3. P&amp;L. </t>
+  </si>
+  <si>
+    <t>1. Workshops to ideate and Wishlist, identify additional risks, assumptions and dependencies. 
+2. Project expectations and deliverables. 
+3. Status and progress reporting, reviews. 
+4. Escalations</t>
+  </si>
+  <si>
+    <t>1. POC to all Stakeholders. 
+2. Progress reports/statues, RAG report.</t>
+  </si>
+  <si>
+    <t>1. Justification for CR/, 
+2. Additional procurement in-between  project</t>
+  </si>
+  <si>
+    <t>1. Contingent workers, 
+2. SME/Testing Companies, 
+3. IT HW-SW Licenses</t>
+  </si>
+  <si>
+    <t>1. Timesheet, 
+2. Audits, 
+3. Checking for Scope + Time + Budget, 
+4. Contractual compliance. 
+5. Compliance to org policies. 
+6. Compliant to contracts/agreement/MSA.</t>
+  </si>
+  <si>
+    <t>1. Project structure, reporting mechanism, roles and responsibilities, 
+2. Regular &amp; timely communication to Clients&amp;Stakeholders. 
+Steering Committee meetings.</t>
+  </si>
+  <si>
+    <t>1. Organise Project initiation meeting (PI) planning.  
+2. Setting up sprint calendar and schedule. 
+3. Assisting in Jira story, Jira Kanban board.</t>
+  </si>
+  <si>
+    <t>1. Capacity Planning, skill building, 
+2. People onboarding, project ready resources, 
+3. Ttechnical engagements. 
+4. Rewards &amp; Recognitions.</t>
+  </si>
+  <si>
+    <t>Retention, year end appraisal, project completion appraisal, compenation review.</t>
+  </si>
+  <si>
+    <t>1. Organise Training internally. 
+2. As part of product procurement - training sessions.</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1105,7 @@
   <dimension ref="B2:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
@@ -1081,13 +1120,13 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:5" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -1095,43 +1134,43 @@
         <v>10</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="72.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>48</v>
@@ -1142,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>49</v>
@@ -1153,7 +1192,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>50</v>
@@ -1164,51 +1203,51 @@
     </row>
     <row r="12" spans="2:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C16" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>9</v>
@@ -1223,34 +1262,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C18" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C19" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="29.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" ht="44" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C20" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>47</v>
@@ -1263,81 +1302,81 @@
     </row>
     <row r="22" spans="2:5" ht="23" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C23" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C24" s="25" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C25" s="25" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="72.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C26" s="25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C27" s="25" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C28" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C29" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>60</v>
@@ -1354,23 +1393,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C31" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" ht="87" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C32" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>47</v>
@@ -1381,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>47</v>
@@ -1394,59 +1433,59 @@
     </row>
     <row r="35" spans="2:5" ht="26.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C36" s="30" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="73" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C37" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" ht="44" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C38" s="25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D38" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="15.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="27" t="s">
-        <v>99</v>
-      </c>
       <c r="D40" s="33" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>47</v>
@@ -1455,76 +1494,76 @@
     <row r="41" spans="2:5" ht="15.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="2:5" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C43" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="29" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="58.5" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C44" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C45" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" ht="29.5" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C46" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" ht="29.5" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C47" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E47" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="29" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" ht="29.5" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C48" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="3:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:5" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C49" s="25" t="s">
         <v>54</v>
       </c>
@@ -1535,12 +1574,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="15" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:5" ht="15.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C50" s="27" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>47</v>
@@ -1571,7 +1610,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1611,7 +1650,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>39</v>
@@ -1620,7 +1659,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -1632,10 +1671,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1645,7 +1684,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
@@ -1659,7 +1698,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>43</v>
@@ -1695,7 +1734,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>45</v>
@@ -1713,16 +1752,16 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1731,13 +1770,13 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -1766,19 +1805,19 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">

--- a/Start-1.xlsx
+++ b/Start-1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ganesh-files\HK-2022\2-PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meenakshi Ganesh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90ADC7A-F4DD-4B83-B4E9-49BB3E8D9FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA911E9-DDBB-4184-9918-5F1F2D16E803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phases-of-PM-Activities" sheetId="4" r:id="rId1"/>
-    <sheet name="PMBOK-Mapped" sheetId="2" r:id="rId2"/>
+    <sheet name="PMBOK-Guide-Daily-activities" sheetId="2" r:id="rId1"/>
+    <sheet name="Phases-of-PM-Activities" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="125">
   <si>
     <t>Commercial input</t>
   </si>
@@ -115,21 +115,6 @@
     <t>Stakeholder</t>
   </si>
   <si>
-    <t>Initiating</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>Executing</t>
-  </si>
-  <si>
-    <t>M&amp;C</t>
-  </si>
-  <si>
-    <t>Closing</t>
-  </si>
-  <si>
     <t>Collect requirement, define scope and creating wbs with PO</t>
   </si>
   <si>
@@ -140,9 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">IT HW, SW - Licenses, </t>
-  </si>
-  <si>
-    <t>Integration</t>
   </si>
   <si>
     <t>Actual project Execution</t>
@@ -441,6 +423,29 @@
   <si>
     <t>1. Organise Training internally. 
 2. As part of product procurement - training sessions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Initiating Process</t>
+  </si>
+  <si>
+    <t>Planning Process</t>
+  </si>
+  <si>
+    <t>Executing Process</t>
+  </si>
+  <si>
+    <t>Monito &amp; Contro Process</t>
+  </si>
+  <si>
+    <t>Closing Process</t>
+  </si>
+  <si>
+    <t>K.A.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -525,23 +530,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <left style="double">
         <color indexed="64"/>
@@ -727,11 +715,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -739,9 +770,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -771,56 +799,65 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,731 +1138,733 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A4E794-728E-4B3C-91B4-93B26DD4AC1F}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.90625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="3.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
-        <v>93</v>
+      <c r="B2" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:5" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="15" t="s">
-        <v>92</v>
+      <c r="B4" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>77</v>
+      <c r="C5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="72.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="29.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="2:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="58" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E16" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="72.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E18" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E19" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="44" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="29.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="22" t="s">
+      <c r="E20" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="2:5" ht="23" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="E25" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="72.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="E27" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="87" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="44" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="8"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="2:5" ht="26.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="12" t="s">
+    </row>
+    <row r="36" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="72.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="44" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="9"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="2:5" ht="23" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="E37" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="72.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="E38" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="43.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="26" t="s">
+      <c r="D39" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="87" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="44" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="15.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="9"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="2:5" ht="26.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="73" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="44" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="15.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>47</v>
+      <c r="E39" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="15.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="2:5" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="15" t="s">
-        <v>74</v>
+      <c r="B42" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="58.5" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="26" t="s">
+      <c r="C43" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="58" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C44" s="24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="25" t="s">
+      <c r="D44" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C45" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="29.5" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="25" t="s">
+      <c r="D45" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="29" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C46" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="29.5" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="25" t="s">
+      <c r="D46" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="29" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C47" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="29.5" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="25" t="s">
+      <c r="D47" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="29" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C48" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" ht="15.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>47</v>
+      <c r="D48" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="C49" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="15" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="3:5" ht="15" collapsed="1" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D53" s="10"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D54" s="10"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D55" s="10"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D56" s="10"/>
+      <c r="D56" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F13"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>